--- a/templates/dataplant/MIAPPE_-_Rooting_conditions.xlsx
+++ b/templates/dataplant/MIAPPE_-_Rooting_conditions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E148197-1F2A-4F60-87D4-5DCB8D92A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED934E-976F-4043-AFCF-576985B407A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
